--- a/Benchmark-Models/Beer_MolBioSystems2014/General_info.xlsx
+++ b/Benchmark-Models/Beer_MolBioSystems2014/General_info.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="218">
   <si>
     <t>Model:</t>
   </si>
@@ -758,7 +758,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-117245.82807383794</v>
+        <v>-118018.84978445125</v>
       </c>
     </row>
     <row r="8">
@@ -766,7 +766,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>27138.142876883434</v>
+        <v>27135.341400155037</v>
       </c>
     </row>
     <row r="9">
@@ -877,7 +877,7 @@
         <v>23</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.16097214328228074</v>
+        <v>-0.16028682509367748</v>
       </c>
       <c r="C2" t="n">
         <v>-5.0</v>
@@ -897,7 +897,7 @@
         <v>25</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.16332190732801669</v>
+        <v>-0.16256030268170663</v>
       </c>
       <c r="C3" t="n">
         <v>-5.0</v>
@@ -917,7 +917,7 @@
         <v>26</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.1666110820056392</v>
+        <v>-0.16590962115325272</v>
       </c>
       <c r="C4" t="n">
         <v>-5.0</v>
@@ -937,7 +937,7 @@
         <v>27</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.16130627229470976</v>
+        <v>-0.16037326701667393</v>
       </c>
       <c r="C5" t="n">
         <v>-5.0</v>
@@ -957,7 +957,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.1456762978154928</v>
+        <v>-0.1456236183667667</v>
       </c>
       <c r="C6" t="n">
         <v>-5.0</v>
@@ -977,7 +977,7 @@
         <v>29</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.1411559739060921</v>
+        <v>-0.1423767218342064</v>
       </c>
       <c r="C7" t="n">
         <v>-5.0</v>
@@ -997,7 +997,7 @@
         <v>30</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.06650171140215853</v>
+        <v>-0.05885399143786484</v>
       </c>
       <c r="C8" t="n">
         <v>-5.0</v>
@@ -1017,7 +1017,7 @@
         <v>31</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.003065458557291627</v>
+        <v>-0.010809229231807512</v>
       </c>
       <c r="C9" t="n">
         <v>-5.0</v>
@@ -1037,7 +1037,7 @@
         <v>32</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.02299702983848495</v>
+        <v>-0.023262284247066046</v>
       </c>
       <c r="C10" t="n">
         <v>-5.0</v>
@@ -1057,7 +1057,7 @@
         <v>33</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.07050832538671623</v>
+        <v>-0.08332279142007316</v>
       </c>
       <c r="C11" t="n">
         <v>-5.0</v>
@@ -1077,7 +1077,7 @@
         <v>34</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.027726713060876988</v>
+        <v>-0.019726406763318764</v>
       </c>
       <c r="C12" t="n">
         <v>-5.0</v>
@@ -1097,7 +1097,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.08531203310142149</v>
+        <v>-0.09381675677027743</v>
       </c>
       <c r="C13" t="n">
         <v>-5.0</v>
@@ -1117,7 +1117,7 @@
         <v>36</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.08852426771632763</v>
+        <v>-0.08317125548914991</v>
       </c>
       <c r="C14" t="n">
         <v>-5.0</v>
@@ -1137,7 +1137,7 @@
         <v>37</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.07829215641641137</v>
+        <v>-0.08039640100758777</v>
       </c>
       <c r="C15" t="n">
         <v>-5.0</v>
@@ -1157,7 +1157,7 @@
         <v>38</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.08779952847920819</v>
+        <v>-0.08734688825395492</v>
       </c>
       <c r="C16" t="n">
         <v>-5.0</v>
@@ -1177,7 +1177,7 @@
         <v>39</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.08524866358573119</v>
+        <v>-0.08830633169267364</v>
       </c>
       <c r="C17" t="n">
         <v>-5.0</v>
@@ -1197,7 +1197,7 @@
         <v>40</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.08991894154131921</v>
+        <v>-0.0871210358229028</v>
       </c>
       <c r="C18" t="n">
         <v>-5.0</v>
@@ -1217,7 +1217,7 @@
         <v>41</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.07569008092164202</v>
+        <v>-0.07691291059249006</v>
       </c>
       <c r="C19" t="n">
         <v>-5.0</v>
@@ -1237,7 +1237,7 @@
         <v>42</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.20255344628440433</v>
+        <v>-0.20434276960014866</v>
       </c>
       <c r="C20" t="n">
         <v>-5.0</v>
@@ -1257,7 +1257,7 @@
         <v>43</v>
       </c>
       <c r="B21" t="n">
-        <v>-2.4339654949930942</v>
+        <v>-2.441972527767096</v>
       </c>
       <c r="C21" t="n">
         <v>-5.0</v>
@@ -1277,7 +1277,7 @@
         <v>44</v>
       </c>
       <c r="B22" t="n">
-        <v>-2.4295114434280682</v>
+        <v>-2.4375455654530387</v>
       </c>
       <c r="C22" t="n">
         <v>-5.0</v>
@@ -1297,7 +1297,7 @@
         <v>45</v>
       </c>
       <c r="B23" t="n">
-        <v>-2.428338284788768</v>
+        <v>-2.4362644507627356</v>
       </c>
       <c r="C23" t="n">
         <v>-5.0</v>
@@ -1317,7 +1317,7 @@
         <v>46</v>
       </c>
       <c r="B24" t="n">
-        <v>-2.429332681204245</v>
+        <v>-2.4387817635863174</v>
       </c>
       <c r="C24" t="n">
         <v>-5.0</v>
@@ -1337,7 +1337,7 @@
         <v>47</v>
       </c>
       <c r="B25" t="n">
-        <v>-2.4350461041019282</v>
+        <v>-2.437307597427257</v>
       </c>
       <c r="C25" t="n">
         <v>-5.0</v>
@@ -1357,7 +1357,7 @@
         <v>48</v>
       </c>
       <c r="B26" t="n">
-        <v>-2.448570043849132</v>
+        <v>-2.4409193265555205</v>
       </c>
       <c r="C26" t="n">
         <v>-5.0</v>
@@ -1377,7 +1377,7 @@
         <v>49</v>
       </c>
       <c r="B27" t="n">
-        <v>-2.6609184658902634</v>
+        <v>-2.6708766991243706</v>
       </c>
       <c r="C27" t="n">
         <v>-5.0</v>
@@ -1397,7 +1397,7 @@
         <v>50</v>
       </c>
       <c r="B28" t="n">
-        <v>-2.664710155808548</v>
+        <v>-2.644913236101985</v>
       </c>
       <c r="C28" t="n">
         <v>-5.0</v>
@@ -1417,7 +1417,7 @@
         <v>51</v>
       </c>
       <c r="B29" t="n">
-        <v>-2.667435670350735</v>
+        <v>-2.6625947536413634</v>
       </c>
       <c r="C29" t="n">
         <v>-5.0</v>
@@ -1437,7 +1437,7 @@
         <v>52</v>
       </c>
       <c r="B30" t="n">
-        <v>-2.6533240464083865</v>
+        <v>-2.6162706202008725</v>
       </c>
       <c r="C30" t="n">
         <v>-5.0</v>
@@ -1457,7 +1457,7 @@
         <v>53</v>
       </c>
       <c r="B31" t="n">
-        <v>-2.678918406944253</v>
+        <v>-2.6888048339950665</v>
       </c>
       <c r="C31" t="n">
         <v>-5.0</v>
@@ -1477,7 +1477,7 @@
         <v>54</v>
       </c>
       <c r="B32" t="n">
-        <v>-2.674069971641874</v>
+        <v>-2.6491914051933225</v>
       </c>
       <c r="C32" t="n">
         <v>-5.0</v>
@@ -1497,7 +1497,7 @@
         <v>55</v>
       </c>
       <c r="B33" t="n">
-        <v>-2.2520892010331734</v>
+        <v>-2.3498336068030077</v>
       </c>
       <c r="C33" t="n">
         <v>-5.0</v>
@@ -1517,7 +1517,7 @@
         <v>56</v>
       </c>
       <c r="B34" t="n">
-        <v>-2.3782232239880936</v>
+        <v>-2.3446592216371305</v>
       </c>
       <c r="C34" t="n">
         <v>-5.0</v>
@@ -1537,7 +1537,7 @@
         <v>57</v>
       </c>
       <c r="B35" t="n">
-        <v>-2.3791151261518158</v>
+        <v>-2.3861487245520676</v>
       </c>
       <c r="C35" t="n">
         <v>-5.0</v>
@@ -1557,7 +1557,7 @@
         <v>58</v>
       </c>
       <c r="B36" t="n">
-        <v>-2.387464021606678</v>
+        <v>-2.338758059155386</v>
       </c>
       <c r="C36" t="n">
         <v>-5.0</v>
@@ -1577,7 +1577,7 @@
         <v>59</v>
       </c>
       <c r="B37" t="n">
-        <v>-2.3239149489310265</v>
+        <v>-2.36975930107578</v>
       </c>
       <c r="C37" t="n">
         <v>-5.0</v>
@@ -1597,7 +1597,7 @@
         <v>60</v>
       </c>
       <c r="B38" t="n">
-        <v>-2.4099213173356357</v>
+        <v>-2.3928776041572863</v>
       </c>
       <c r="C38" t="n">
         <v>-5.0</v>
@@ -1617,7 +1617,7 @@
         <v>61</v>
       </c>
       <c r="B39" t="n">
-        <v>-2.204775869010557</v>
+        <v>-2.1544768550415854</v>
       </c>
       <c r="C39" t="n">
         <v>-5.0</v>
@@ -1637,7 +1637,7 @@
         <v>62</v>
       </c>
       <c r="B40" t="n">
-        <v>-1.8595985325722633</v>
+        <v>-1.8326591874135092</v>
       </c>
       <c r="C40" t="n">
         <v>-20.0</v>
@@ -1657,7 +1657,7 @@
         <v>63</v>
       </c>
       <c r="B41" t="n">
-        <v>-2.505492370844239</v>
+        <v>-2.5041461838343877</v>
       </c>
       <c r="C41" t="n">
         <v>-5.0</v>
@@ -1677,7 +1677,7 @@
         <v>64</v>
       </c>
       <c r="B42" t="n">
-        <v>-2.4039884153862894</v>
+        <v>-2.4095440900111806</v>
       </c>
       <c r="C42" t="n">
         <v>-5.0</v>
@@ -1697,7 +1697,7 @@
         <v>65</v>
       </c>
       <c r="B43" t="n">
-        <v>0.5848969229158092</v>
+        <v>-0.7578729024485816</v>
       </c>
       <c r="C43" t="n">
         <v>-5.0</v>
@@ -1717,7 +1717,7 @@
         <v>66</v>
       </c>
       <c r="B44" t="n">
-        <v>-1.9705827383238006</v>
+        <v>-1.9874471582369884</v>
       </c>
       <c r="C44" t="n">
         <v>-5.0</v>
@@ -1737,7 +1737,7 @@
         <v>67</v>
       </c>
       <c r="B45" t="n">
-        <v>-4.234144633070725</v>
+        <v>-4.23027786846739</v>
       </c>
       <c r="C45" t="n">
         <v>-5.0</v>
@@ -1757,7 +1757,7 @@
         <v>68</v>
       </c>
       <c r="B46" t="n">
-        <v>-2.7753200001109333</v>
+        <v>-2.6791245471325533</v>
       </c>
       <c r="C46" t="n">
         <v>-5.0</v>
@@ -1777,7 +1777,7 @@
         <v>69</v>
       </c>
       <c r="B47" t="n">
-        <v>1.259951216851266</v>
+        <v>-4.999999999999975</v>
       </c>
       <c r="C47" t="n">
         <v>-5.0</v>
@@ -1797,7 +1797,7 @@
         <v>70</v>
       </c>
       <c r="B48" t="n">
-        <v>-4.115191525549631</v>
+        <v>-4.16398600459287</v>
       </c>
       <c r="C48" t="n">
         <v>-5.0</v>
@@ -1817,7 +1817,7 @@
         <v>71</v>
       </c>
       <c r="B49" t="n">
-        <v>-2.0799037517796255</v>
+        <v>-2.0869534402278718</v>
       </c>
       <c r="C49" t="n">
         <v>-5.0</v>
@@ -1837,7 +1837,7 @@
         <v>72</v>
       </c>
       <c r="B50" t="n">
-        <v>-3.0540028234629903</v>
+        <v>-3.076706630410396</v>
       </c>
       <c r="C50" t="n">
         <v>-5.0</v>
@@ -1857,7 +1857,7 @@
         <v>73</v>
       </c>
       <c r="B51" t="n">
-        <v>-1.01871202618238</v>
+        <v>4.999979250023473</v>
       </c>
       <c r="C51" t="n">
         <v>-5.0</v>
@@ -1877,7 +1877,7 @@
         <v>74</v>
       </c>
       <c r="B52" t="n">
-        <v>-2.2987853584992575</v>
+        <v>-2.2570325752524862</v>
       </c>
       <c r="C52" t="n">
         <v>-5.0</v>
@@ -1897,7 +1897,7 @@
         <v>75</v>
       </c>
       <c r="B53" t="n">
-        <v>-1.4228499098960212</v>
+        <v>-1.4311192736442944</v>
       </c>
       <c r="C53" t="n">
         <v>-5.0</v>
@@ -1917,7 +1917,7 @@
         <v>76</v>
       </c>
       <c r="B54" t="n">
-        <v>-1.6864445780688957</v>
+        <v>-1.6905039183392385</v>
       </c>
       <c r="C54" t="n">
         <v>-5.0</v>
@@ -1937,7 +1937,7 @@
         <v>77</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.7859869072495972</v>
+        <v>-2.6907488120115035</v>
       </c>
       <c r="C55" t="n">
         <v>-5.0</v>
@@ -1957,7 +1957,7 @@
         <v>78</v>
       </c>
       <c r="B56" t="n">
-        <v>-1.255801953748038</v>
+        <v>-3.1605638585099447</v>
       </c>
       <c r="C56" t="n">
         <v>-5.0</v>
@@ -1997,7 +1997,7 @@
         <v>80</v>
       </c>
       <c r="B58" t="n">
-        <v>0.4098335629417518</v>
+        <v>-1.97111881801063</v>
       </c>
       <c r="C58" t="n">
         <v>-5.0</v>
@@ -2017,7 +2017,7 @@
         <v>81</v>
       </c>
       <c r="B59" t="n">
-        <v>-1.1876006141435391</v>
+        <v>1.0028755763326513</v>
       </c>
       <c r="C59" t="n">
         <v>-5.0</v>
@@ -2037,7 +2037,7 @@
         <v>82</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.5238650934823421</v>
+        <v>1.452325382708133</v>
       </c>
       <c r="C60" t="n">
         <v>-5.0</v>
@@ -2057,7 +2057,7 @@
         <v>83</v>
       </c>
       <c r="B61" t="n">
-        <v>-1.6984324180046295</v>
+        <v>-2.5841467037189156</v>
       </c>
       <c r="C61" t="n">
         <v>-5.0</v>
@@ -2077,7 +2077,7 @@
         <v>84</v>
       </c>
       <c r="B62" t="n">
-        <v>1.305965318504167</v>
+        <v>2.091679604218457</v>
       </c>
       <c r="C62" t="n">
         <v>-5.0</v>
@@ -2097,7 +2097,7 @@
         <v>85</v>
       </c>
       <c r="B63" t="n">
-        <v>-1.91249845699137</v>
+        <v>1.7125015430086292</v>
       </c>
       <c r="C63" t="n">
         <v>-5.0</v>
@@ -2117,7 +2117,7 @@
         <v>86</v>
       </c>
       <c r="B64" t="n">
-        <v>1.5627715765167902</v>
+        <v>2.285985862231084</v>
       </c>
       <c r="C64" t="n">
         <v>-5.0</v>
@@ -2157,7 +2157,7 @@
         <v>88</v>
       </c>
       <c r="B66" t="n">
-        <v>-1.55809120298202</v>
+        <v>2.0817897493989346</v>
       </c>
       <c r="C66" t="n">
         <v>-5.0</v>
@@ -2177,7 +2177,7 @@
         <v>89</v>
       </c>
       <c r="B67" t="n">
-        <v>2.3495786585561476</v>
+        <v>1.79005484903234</v>
       </c>
       <c r="C67" t="n">
         <v>-5.0</v>
@@ -2197,7 +2197,7 @@
         <v>90</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.9701398055190495</v>
+        <v>1.9227173373380926</v>
       </c>
       <c r="C68" t="n">
         <v>-5.0</v>
@@ -2237,7 +2237,7 @@
         <v>92</v>
       </c>
       <c r="B70" t="n">
-        <v>-2.0223492485802885</v>
+        <v>2.0609840847530445</v>
       </c>
       <c r="C70" t="n">
         <v>-5.0</v>
@@ -2257,7 +2257,7 @@
         <v>93</v>
       </c>
       <c r="B71" t="n">
-        <v>2.181982432344593</v>
+        <v>1.8724586228207847</v>
       </c>
       <c r="C71" t="n">
         <v>-5.0</v>
@@ -2277,7 +2277,7 @@
         <v>94</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.7138018907136363</v>
+        <v>1.738579061667315</v>
       </c>
       <c r="C72" t="n">
         <v>-5.0</v>
@@ -2297,7 +2297,7 @@
         <v>95</v>
       </c>
       <c r="B73" t="n">
-        <v>3.0189185124474873</v>
+        <v>3.051656607685585</v>
       </c>
       <c r="C73" t="n">
         <v>-5.0</v>
@@ -2414,7 +2414,7 @@
         <v>1428.0</v>
       </c>
       <c r="G4" t="n">
-        <v>313.3977803911369</v>
+        <v>294.44073456597863</v>
       </c>
       <c r="H4" t="s">
         <v>111</v>
@@ -2453,7 +2453,7 @@
         <v>1428.0</v>
       </c>
       <c r="G5" t="n">
-        <v>1191.424237575469</v>
+        <v>1203.5842461769455</v>
       </c>
       <c r="H5" t="s">
         <v>118</v>
@@ -2492,7 +2492,7 @@
         <v>1428.0</v>
       </c>
       <c r="G6" t="n">
-        <v>1258.3803962710404</v>
+        <v>1236.076109332709</v>
       </c>
       <c r="H6" t="s">
         <v>125</v>
@@ -2531,7 +2531,7 @@
         <v>1428.0</v>
       </c>
       <c r="G7" t="n">
-        <v>1265.976439000021</v>
+        <v>1264.3499461823546</v>
       </c>
       <c r="H7" t="s">
         <v>129</v>
@@ -2570,7 +2570,7 @@
         <v>1428.0</v>
       </c>
       <c r="G8" t="n">
-        <v>1010.6739284464259</v>
+        <v>1000.4652023481826</v>
       </c>
       <c r="H8" t="s">
         <v>133</v>
@@ -2609,7 +2609,7 @@
         <v>1428.0</v>
       </c>
       <c r="G9" t="n">
-        <v>789.0109473429226</v>
+        <v>793.4327927756292</v>
       </c>
       <c r="H9" t="s">
         <v>137</v>
@@ -2648,7 +2648,7 @@
         <v>1428.0</v>
       </c>
       <c r="G10" t="n">
-        <v>2530.8076607649436</v>
+        <v>2555.482189970787</v>
       </c>
       <c r="H10" t="s">
         <v>141</v>
@@ -2687,7 +2687,7 @@
         <v>1428.0</v>
       </c>
       <c r="G11" t="n">
-        <v>2583.0492242368864</v>
+        <v>2654.808018538271</v>
       </c>
       <c r="H11" t="s">
         <v>145</v>
@@ -2726,7 +2726,7 @@
         <v>1428.0</v>
       </c>
       <c r="G12" t="n">
-        <v>2044.3115792854592</v>
+        <v>2032.3627629884622</v>
       </c>
       <c r="H12" t="s">
         <v>152</v>
@@ -2765,7 +2765,7 @@
         <v>1428.0</v>
       </c>
       <c r="G13" t="n">
-        <v>2075.7277185276653</v>
+        <v>2141.62260329246</v>
       </c>
       <c r="H13" t="s">
         <v>156</v>
@@ -2804,7 +2804,7 @@
         <v>1428.0</v>
       </c>
       <c r="G14" t="n">
-        <v>1503.91007775465</v>
+        <v>1387.886928118061</v>
       </c>
       <c r="H14" t="s">
         <v>160</v>
@@ -2843,7 +2843,7 @@
         <v>1428.0</v>
       </c>
       <c r="G15" t="n">
-        <v>2362.0729477565633</v>
+        <v>2564.08417888685</v>
       </c>
       <c r="H15" t="s">
         <v>164</v>
@@ -2882,7 +2882,7 @@
         <v>1428.0</v>
       </c>
       <c r="G16" t="n">
-        <v>2222.521102291521</v>
+        <v>2183.5447226817955</v>
       </c>
       <c r="H16" t="s">
         <v>168</v>
@@ -2921,7 +2921,7 @@
         <v>1428.0</v>
       </c>
       <c r="G17" t="n">
-        <v>1186.7133914328665</v>
+        <v>1075.327907008657</v>
       </c>
       <c r="H17" t="s">
         <v>172</v>
@@ -2960,7 +2960,7 @@
         <v>1428.0</v>
       </c>
       <c r="G18" t="n">
-        <v>1039.777136618653</v>
+        <v>1030.0921021857782</v>
       </c>
       <c r="H18" t="s">
         <v>179</v>
@@ -2999,7 +2999,7 @@
         <v>1428.0</v>
       </c>
       <c r="G19" t="n">
-        <v>980.7807479616783</v>
+        <v>1011.1799036039872</v>
       </c>
       <c r="H19" t="s">
         <v>183</v>
@@ -3038,7 +3038,7 @@
         <v>1428.0</v>
       </c>
       <c r="G20" t="n">
-        <v>999.8900037418617</v>
+        <v>950.3116661114049</v>
       </c>
       <c r="H20" t="s">
         <v>187</v>
@@ -3077,7 +3077,7 @@
         <v>1428.0</v>
       </c>
       <c r="G21" t="n">
-        <v>876.3158164360858</v>
+        <v>844.6027164288666</v>
       </c>
       <c r="H21" t="s">
         <v>191</v>
@@ -3116,7 +3116,7 @@
         <v>1428.0</v>
       </c>
       <c r="G22" t="n">
-        <v>903.4017410477188</v>
+        <v>911.686668957813</v>
       </c>
       <c r="H22" t="s">
         <v>195</v>

--- a/Benchmark-Models/Beer_MolBioSystems2014/General_info.xlsx
+++ b/Benchmark-Models/Beer_MolBioSystems2014/General_info.xlsx
@@ -40,7 +40,7 @@
     <t xml:space="preserve">Errors are assumed as additive Gaussian errors</t>
   </si>
   <si>
-    <t xml:space="preserve">Log-likelihood value of the model is </t>
+    <t xml:space="preserve">2*Log-likelihood value of the model is </t>
   </si>
   <si>
     <t xml:space="preserve">Chi2 value of the model is </t>
@@ -776,7 +776,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
